--- a/Warehouse/BB/judgement_logs_run4o.xlsx
+++ b/Warehouse/BB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;48;01.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;17;29.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected as the theme for spirit week.
+MSG: Based on the discussion, there was no consensus reached regarding the spirit week theme.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;50;25.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;53;41.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The two parties came to a compromise for spirit week's theme.
+MSG: Pajama day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;40;56.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;48;01.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on whether the theme should be Pajama Day or Formal Day for spirit week.
+MSG: The theme selected for spirit week's Friday is pajama day.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;51;59.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;50;25.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: They came to a compromise, blending elements of both pajama day and a formal theme.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;41;46.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;40;56.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week between Pajama Day and Formal Day.
 </t>
         </is>
       </c>
@@ -610,7 +610,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;36;51.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;51;59.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;42;41.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;41;46.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme selected for spirit week is Pajama Day.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;26;17.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;16;43.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected for spirit week. Thank you for your input and cooperation!
+MSG: The theme for spirit week will be a compromise between Formal Day and Pajama Day. They decided on a "Pajama Party with a Formal Flair" theme.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;44;30.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;14;28.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The discussion did not lead to a consensus about the theme for spirit week.
+MSG: They came to a compromise for the theme of spirit week.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;42;02.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;06;26.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached in the discussion about the theme for spirit week.
 </t>
         </is>
       </c>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;29;18.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;57;00.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached for the spirit week theme.
 </t>
         </is>
       </c>
@@ -742,7 +742,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;37;27.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;36;51.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;31;52.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;55;14.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for spirit week was to have a compromise with both pajama day and formal day included in the week's events.
+MSG: Pajama Day was selected for spirit week.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;32;14.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;42;41.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Pajama Day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;45;00.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;26;17.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected for spirit week.
+MSG: Pajama Day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;25;19.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;44;30.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on a specific theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;43;54.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;42;02.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached regarding the selection of the theme for spirit week.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;23;42.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;29;18.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached in the discussion for the spirit week theme.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;42;14.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;37;27.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;50;55.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;10;13.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached during the meeting regarding the spirit week theme.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;50;21.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;31;52.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected as the theme for spirit week.
+MSG: The decision for spirit week resulted in a compromise, incorporating both pajama day and formal day.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;31;43.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;54;55.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: They came to a compromise for spirit week, combining elements of both pajama day and formal day.
+MSG: Pajama day has been selected for spirit week. The kids will enjoy celebrating in their favorite pajamas!
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;45;34.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;32;14.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day has been selected as the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;38;13.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;45;00.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected as the theme for spirit week.
+MSG: Pajama day was selected for spirit week.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;33;38.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;25;19.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for spirit week was a compromise, incorporating both formal and pajama day elements.
+MSG: The decision on the theme for spirit week resulted in no consensus.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;41;47.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;51;34.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected for spirit week.
+MSG: Pajama Day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;52;56.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;43;54.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There's no consensus on the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;53;37.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;18;14.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Pajama Day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;35;44.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;23;42.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached during the discussion.
+MSG: There was no consensus reached for the spirit week theme.
 </t>
         </is>
       </c>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;43;51.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;42;14.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;42;58.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;05;21.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected for spirit week!
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;34;43.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;55;39.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since no consensus was reached between Amy and Alice regarding the theme for spirit week, neither pajama day nor formal day was selected.
+MSG: Pajama day has been selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;41;27.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;49;45.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: They came to a compromise for spirit week.
+MSG: There was no consensus reached on the theme for Spirit Week.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;47;01.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;50;55.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme "Pajama Meets Formal" was selected as a compromise for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;51;12.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;50;21.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme selected for spirit week is Pajama Day.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;51;35.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;31;43.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision for spirit week is a compromise: a combined theme with elements of both pajama day and formal day.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;51;03.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;53;09.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached on selecting either Formal Day or Pajama Day for spirit week.
 </t>
         </is>
       </c>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;54;08.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;45;34.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on selecting either pajama day or formal day for spirit week.
+MSG: Pajama day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;32;52.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;38;13.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached between the two parties on the theme for spirit week.
+MSG: Pajama day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;48;36.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;33;38.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: They came to a compromise for spirit week, blending both formal and pajama day themes.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;55;11.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;07;47.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;50;29.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;41;47.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as pajama day.
+MSG: Pajama day was selected for spirit week!
 </t>
         </is>
       </c>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;46;07.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;50;50.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected as the theme for spirit week!
+MSG: Pajama day was selected for spirit week.
 </t>
         </is>
       </c>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;35;39.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;52;56.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached between Alice and Amy regarding the theme for spirit week.
+MSG: There was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;43;31.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;53;37.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;24;50.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;35;44.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected as the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;47;38.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;02;43.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
+MSG: There was no consensus on the theme for spirit week, as the discussion ended without agreement on either formal day or pajama day being selected.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;29;56.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;43;51.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was to have a compromise including both Pajama Day and Formal Day as part of spirit week.
+MSG: Pajama day was selected for spirit week.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;49;52.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;42;58.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the spirit week theme between pajama day and formal day.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;32;46.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;15;16.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on selecting either formal day or pajama day for spirit week.
+MSG: There was no consensus reached on the selection of the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1600,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;36;22.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;34;43.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;22;37.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;02;36.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Formal day was selected for spirit week.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">formal_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;39;40.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;17;12.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Pajama day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1666,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;34;23.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;06;47.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme of spirit week.
+MSG: There was no consensus reached for the spirit week theme.
 </t>
         </is>
       </c>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;28;30.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;17;56.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is a compromise that combines elements of both Formal Day and Pajama Day, capturing the spirit of both themes.
+MSG: There was no consensus reached between Alice and Amy on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;49;33.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;20;52.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached between the two parties on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;31;20.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;41;27.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on whether to select pajama day or formal day for spirit week.
+MSG: A compromise was reached for spirit week.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;45;31.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;47;01.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected as the theme for spirit week.
+MSG: The theme for spirit week is "Pajama Meets Formal," which was a result of a compromise between the two sides.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1776,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;48;07.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;51;12.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama day was selected for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;31;07.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;01;17.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached between Amy and Alice regarding the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;43;12.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;51;12.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as pajama day.
+MSG: Pajama Day was selected as the theme for spirit week! Enjoy the fun with fancy accessories.
 </t>
         </is>
       </c>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;51;27.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;59;07.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected for spirit week.
+MSG: Pajama day was selected for spirit week.
 </t>
         </is>
       </c>
@@ -1864,13 +1864,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;48;53.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;00;39.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected as the theme for spirit week.
+MSG: Pajama day was selected as the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1886,19 +1886,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;47;02.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;03;56.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision was made through a compromise, incorporating elements from both Pajama Day and a formal celebration.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1908,13 +1908,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;34;09.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;31;07.json</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the information provided, there was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1930,19 +1930,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;33;39.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;09;20.json</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Pajama Day was selected for spirit week.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1952,13 +1952,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;30;33.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;13;45.json</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected as the theme for spirit week.
+MSG: The theme for spirit week is Pajama Day.
 </t>
         </is>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;46;24.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;01;46.json</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1996,19 +1996,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;21;08.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;51;35.json</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected as the theme for spirit week.
+MSG: There was no consensus reached between the groups regarding the spirit week theme.
 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -2018,13 +2018,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;21;57.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;51;03.json</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached between the two parties regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -2040,19 +2040,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;49;40.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;54;08.json</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Pajama Day was selected for spirit week.
+MSG: There was no consensus reached for the theme of spirit week.
 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">pajama_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -2062,19 +2062,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;44;03.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;08;34.json</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Pajama Day was selected for spirit week.
 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;40;13.json</t>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;32;52.json</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached between the participants on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;44;31.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;09;45.json</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus reached for the spirit week theme.
 </t>
         </is>
       </c>
@@ -2128,19 +2128,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;35;02.json</t>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;16;19.json</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been decided: Pajama Day was selected.
 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;24;18.json</t>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;48;36.json</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2172,17 +2172,1557 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;55;11.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion concluded without a consensus on whether to select formal day or pajama day for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;57;23.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not reach an agreement, there was no consensus on selecting the theme for spirit week between formal day and pajama day.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;50;29.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected for spirit week this Friday.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;12;01.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;15;50.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected as the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;11;30.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;46;07.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for the spirit week's theme.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;35;39.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;43;31.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;24;50.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;20;24.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week was decided upon as a compromise, combining both pajama day and formal day. This approach allows for creativity and inclusivity, catering to various student preferences and situations.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;47;38.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;00;06.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The two have come to a compromise by merging Pajama Day with elements of Formal Day. The Spirit Week theme will reflect both ideas.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;29;56.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week resulted in a compromise, incorporating both Pajama Day and Formal Day into the plans.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;58;44.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;49;52.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week was to come to a compromise, selecting a "Smart Casual Day" theme.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;32;46.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was to propose a plan that incorporates both pajama day and formal day, suggesting that they have come to a compromise for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;36;22.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected as the theme for spirit week. Everyone can look forward to a fun and comfortable day dressed in their favorite pajamas!
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;22;37.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;39;40.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not result in a consensus on whether to select formal day or pajama day for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;56;03.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;34;23.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No consensus was reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;28;30.json</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is a compromise that incorporates elements from both Pajama Day and Formal Day.
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;03;27.json</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected as the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;04;19.json</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: They came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;49;33.json</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;31;20.json</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;45;31.json</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;48;07.json</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;31;07.json</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;43;12.json</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is pajama day.
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;03;04.json</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;54;32.json</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as Pajama Day.
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;51;27.json</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week. Everyone can look forward to a cozy and fun Friday!
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;08;10.json</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;59;34.json</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;48;53.json</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;47;02.json</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Both agreed that Pajama Day was selected for Friday during spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;54;05.json</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;34;09.json</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;04;54.json</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week was selected as "Dress Your PJs" day, which incorporates elements of both comfort and formality.
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;33;39.json</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected as the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;02;11.json</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no agreement reached during the discussion, there is no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;18;53.json</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;18;34.json</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;21;13.json</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;30;33.json</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;52;13.json</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: They came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_20;46;24.json</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;21;08.json</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected as the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;21;57.json</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;50;24.json</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_18;49;40.json</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected as the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;44;03.json</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;40;13.json</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;19;44.json</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;56;34.json</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected for spirit week. Enjoy the cozy and fun atmosphere!
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_15;44;31.json</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;08;56.json</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus on the theme for spirit week. Therefore, no theme was selected.
+</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;19;22.json</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was to blend both ideas, allowing Pajama Day as the main theme with an option for kids to dress up formally. They came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;35;02.json</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_08_2025 at_20;24;18.json</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;14;10.json</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama day was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_21;02;23.json</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;07;26.json</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Pajama Day was selected as the theme for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pajama_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;10;34.json</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: They came to a compromise by blending elements of both Pajama Day and Formal Day to create a unique and inclusive experience for the spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;13;16.json</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached in the discussion for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>./Warehouse/BB/run4o_test_02_10_2025 at_21;38;50.json</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: They came to a compromise regarding the spirit week theme.
-</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: They came to a compromise for spirit week. Both Pajama Day and Formal Day will be part of the week's themes.
+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;11;01.json</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for Spirit Week is a compromise that combines both Formal Day and Pajama Day elements.
+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;12;49.json</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is a compromise between pajama day and formal day, resulting in a pajama-themed formal day.
+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_test_02_21_2025 at_22;05;54.json</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week was a compromise, blending elements from both themes to create a unique and engaging experience.
+</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
         <is>
           <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>

--- a/Warehouse/BB/judgement_logs_run4o.xlsx
+++ b/Warehouse/BB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;41;58.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;50;13.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The decision has been made: there was a compromise, and the theme for spirit week will incorporate elements from both crazy sock day and an option for showcasing crazy hats during a designated time.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;32;57.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;18;15.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided; they came to a compromise!
+MSG: The outcome of the discussion did not lead to a consensus. Therefore, the decision is marked as no consensus.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;44;15.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;26;44.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been selected, and they came to a compromise!
+MSG: The decision for spirit week is that both sides came to a compromise.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;44;45.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;14;38.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is Crazy Sock and Hat Day, as Alice and Amy came to a compromise and agreed on this choice together.
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as Amy and Alice came to a compromise!
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;47;02.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;25;19.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme of Spirit Week.
+MSG: The result is that they came to a compromise, and the theme for spirit week will be a combination of Crazy Sock Day and Crazy Hat Day!
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;40;21.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;41;58.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is Crazy Socks and Crazy Hats Day, as both Alice and Amy came to a compromise on this idea.
+MSG: The decision for spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;43;38.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;13;13.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The outcome is that they came to a compromise for spirit week.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;45;07.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;42;58.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week is a compromise, so both crazy hat day and crazy sock day will be celebrated together!
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;41;21.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;36;59.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached in the discussions regarding the theme for spirit week, I have called the function for no consensus.
+MSG: Based on the discussion, there was no consensus reached on either crazy hat day or crazy sock day. Therefore, the decision is to call no_consensus.
 </t>
         </is>
       </c>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;36;42.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;51;50.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selected theme for spirit week is "Crazy Hat and Sock Day," as Amy and Alice came to a compromise.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;32;07.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;32;57.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached, I will call the function `no_consensus`.
+MSG: The theme for spirit week is Crazy Sock and Hat Day, as both Alice and Amy came to a compromise.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;31;22.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;55;34.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;48;33.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;41;24.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so the function for no consensus has been called.
+MSG: Since there was no consensus reached between Amy and Alice on a specific theme for spirit week, the decision is to call no_consensus.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;30;18.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;44;15.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of spirit week is Crazy Sock Day this Friday, as both parties came to a compromise!
+MSG: The theme for spirit week is "Crazy Sock and Hat Day" as a compromise that both Alice and Amy agreed upon.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;35;13.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;20;40.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion led to no consensus on the theme for spirit week.
+MSG: The outcome of the discussion resulted in no consensus on a specific theme for spirit week.
 </t>
         </is>
       </c>
@@ -786,20 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;40;47.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;05;20.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: None
-MSG: The theme for spirit week has been selected as Crazy Sock and Hat Day!
+MSG: The decision for spirit week has resulted in a compromise, so both "Crazy Hat Day" and "Crazy Sock Day" will be celebrated!
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, , crazy_sock_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -809,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;36;05.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;19;11.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The result of the discussion is that they came to a compromise. Spirit week will feature both Crazy Sock Day earlier in the week and Crazy Hat Day on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -831,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;34;33.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;48;56.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The decision for spirit week is that they came to a compromise!
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -853,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;33;22.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;39;02.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached between the options, the function for no consensus has been called.
+MSG: The outcome of the discussion is that they came to a compromise for the spirit week theme.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -875,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;39;01.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;26;16.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached on either formal day or pajama day, I have called the function for no consensus.
+MSG: The decision for spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -897,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;39;37.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;44;45.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems that there was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been decided: they came to a compromise!
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -919,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;30;52.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;47;02.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems that there was no consensus reached regarding the theme for spirit week.
+MSG: The theme for Spirit Week is a compromise between both sides, incorporating elements of both crazy hat day and crazy sock day.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -941,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;47;37.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;05;53.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selected theme for spirit week is "Crazy Hat Day" with "Crazy Socks" as an optional addition.
+MSG: The decision for spirit week is that they came to a compromise!
 </t>
         </is>
       </c>
@@ -963,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;45;41.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;10;30.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The decision for spirit week is: they came to a compromise between Crazy Hat Day and Crazy Sock Day!
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -985,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;34;02.json</t>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;53;02.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme selected for spirit week is Crazy Sock Day.
+MSG: The decision has been made: they came to a compromise! The theme for spirit week will be Crazy Hat and Sock Day.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1007,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;46;27.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;46;41.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The decision for spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1029,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;48;10.json</t>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;40;21.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been determined as Crazy Hat Day with the option for crazy socks.
+MSG: The outcome for spirit week is that they came to a compromise with Crazy Socks and Crazy Hats Day.
 </t>
         </is>
       </c>
@@ -1051,19 +1050,3781 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;08;02.json</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;49;10.json</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;51;09.json</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;28;46.json</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;31;51.json</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;43;38.json</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Amy regarding the theme for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;55;09.json</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not come to a consensus about the theme for spirit week, I will call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;27;20.json</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;26;34.json</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and both parties came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;29;16.json</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;24;35.json</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;39;31.json</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: They came to a compromise, and the theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;16;31.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;26;23.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise. The theme for spirit week will include both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;45;07.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;03;43.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;41;21.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;13;23.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;36;42.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise on "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;13;51.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week, so the decision stands as "no consensus."
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;53;24.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: "Crazy Accessories Day."
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;06;36.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not result in a consensus between the two sides, so there will be no selected theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;56;04.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise on the hybrid idea, allowing for both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;32;07.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The consensus reached is that they came to a compromise, which means the theme for spirit week will include both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;52;46.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus, so the function for no consensus has been called.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;54;01.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that the theme "Crazy Sock and Hat Day" has been selected as a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;17;20.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that Amy and Alice did not reach a consensus on the theme for spirit week. Therefore, I will call the no_consensus function.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;40;09.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;36;01.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not reach a consensus on Crazy Hat Day or Crazy Sock Day, I have called the function indicating no consensus was reached.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;04;12.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;31;22.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion ended without a consensus on the theme for spirit week, so "no consensus" has been called.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;49;39.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not lead to a consensus on the theme for spirit week. Therefore, there is no selected theme.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;16;10.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not come to a consensus on the theme for spirit week, the result is a no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;24;33.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, allowing for Crazy Hat Day with the option for crazy socks.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;27;31.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;48;33.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Amy and Alice, resulting in "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;14;22.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;59;18.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week will be "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;57;52.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, and both "Crazy Hat Day" and "Crazy Sock Day" will be celebrated!
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;15;43.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;22;35.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that both Alice and Amy came to a compromise, resulting in "Crazy Sock and Crazy Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;30;19.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not reach a consensus, so I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;32;58.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;22;27.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;25;35.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It appears that there was no consensus reached between Amy and Alice regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;14;56.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;30;28.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between both ideas.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;07;22.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;40;25.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;17;44.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;30;18.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise. Crazy Sock Day will be celebrated this Friday, with Crazy Hat Day planned for a future event.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;15;36.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;21;59.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;37;43.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;02;43.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, resulting in "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;19;13.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between the parties regarding the theme for spirit week, I have called for no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;44;53.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is that they came to a compromise, which means both Crazy Sock Day and Crazy Hat Day will be included!
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;09;22.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will be Crazy Accessories Day.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;17;48.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between Amy and Alice regarding the theme for spirit week, so the decision is to call no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;12;38.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;07;16.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not come to a consensus on the theme for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;35;13.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It appears that there was no consensus reached between Alice and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;15;09.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The consensus reached is that they came to a compromise for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;39;40.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;26;55.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;44;26.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise! Spirit week will feature both Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;33;01.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;10;40.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that there was no consensus reached between Alice and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;31;12.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Amy and Alice regarding the theme for spirit week, I have called the function indicating no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;40;47.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise: Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;49;41.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week will feature a compromise, incorporating elements from both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;48;21.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Amy and Alice regarding the theme for spirit week, I have called the `no_consensus` function.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;57;25.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;36;05.json</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;22;14.json</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;11;59.json</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise combining both ideas.
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;27;52.json</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as "Crazy Hat and Sock Day." Both parties came to a compromise on this theme.
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;16;19.json</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as both parties reached a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;20;38.json</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the criteria, a consensus was not reached regarding the theme for spirit week. Therefore, I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;54;13.json</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will include elements of both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;25;09.json</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week is Crazy Hat Day with the option for crazy socks and a contest.
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;23;02.json</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;43;34.json</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for Spirit Week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;51;53.json</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;28;38.json</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise! The selected theme is Crazy Hat and Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;34;45.json</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise on Crazy Socks and Hats Day.
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;34;33.json</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for the theme of spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;11;19.json</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise; both crazy sock day and crazy hat day will be celebrated!
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;36;14.json</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock Day"!
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;33;22.json</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in a compromise, so the theme for spirit week has been decided as a combination of both "Crazy Hat Day" and "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;29;43.json</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as both parties came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;06;31.json</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not result in a consensus, so I called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;25;27.json</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise, resulting in Crazy Sock and Hat Day being selected!
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;39;01.json</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is a compromise, incorporating both Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;37;31.json</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will involve Crazy Sock Day with the optional Crazy Hat, along with the additional ideas they discussed.
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;59;14.json</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to go with the compromise that both Alice and Amy agreed on for spirit week. The theme will be "Crazy Sock Day" with optional hats!
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;59;49.json</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been made: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;19;01.json</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between Alice and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;09;16.json</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;47;54.json</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;06;08.json</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;01;12.json</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that they came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;21;03.json</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme selected for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;12;41.json</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has resulted in a compromise, with both Crazy Sock Day and Crazy Hat Day being selected.
+</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;40;29.json</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise for the theme of spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;14;52.json</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;58;19.json</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is a compromise between both ideas.
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;40;57.json</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;29;50.json</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;07;57.json</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise on Crazy Sock and Hat Day for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;04;46.json</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The final decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;03;45.json</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;35;12.json</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the criteria provided, there was no consensus reached between Alice and Amy on the theme for spirit week. Therefore, the appropriate function to call is `no_consensus`.
+</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;21;32.json</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It looks like there was no consensus reached between Alice and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;56;34.json</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been determined: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;10;05.json</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;32;32.json</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is "Crazy Hat and Sock Day" as both parties came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;36;41.json</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The spirit week theme has been decided: they came to a compromise on crazy hat and crazy sock day!
+</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;09;56.json</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, featuring both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;23;55.json</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between Amy and Alice regarding the theme for spirit week. 
+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;35;14.json</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus reached between Alice and Amy regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;47;24.json</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise: "Crazy Hat Day" with a fun sock component!
+</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_10;38;32.json</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is set as Crazy Sock and Hat Day, reflecting the compromise reached between Alice and Amy.
+</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;24;55.json</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, it appears that there was no consensus reached between Amy and Alice regarding the theme for spirit week. Therefore, the outcome is that no consensus was called.
+</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;58;40.json</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The meeting did not result in a consensus for the theme of spirit week, so the decision is classified as no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;17;01.json</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;19;43.json</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, incorporating both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;45;44.json</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The compromise of Crazy Sock and Hat Day has been selected for the theme of spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;39;37.json</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;21;30.json</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise between "Crazy Hat Day" and "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;30;52.json</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result for spirit week is that they came to a compromise on the theme.
+</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;51;26.json</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;20;00.json</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not come to a consensus on whether to select Crazy Hat Day or Crazy Sock Day, I will call the function indicating no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;12;01.json</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise on Crazy Hat and Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;47;37.json</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise, selecting "Crazy Hat Day" as the primary theme with the option of "Crazy Socks" as an addition.
+</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;11;09.json</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion resulted in a compromise, so the theme for spirit week is Crazy Hat and Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;22;04.json</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will be a combination of "Crazy Hat Day" and "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;25;52.json</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The consensus for spirit week is that they came to a compromise with the theme of Crazy Hat and Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;57;54.json</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, combining Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;50;40.json</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;45;41.json</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;33;33.json</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week resulted in no consensus between the two parties.
+</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;09;22.json</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Given that there was no consensus reached between Alice and Amy regarding the theme for spirit week, I have called the function `no_consensus`.
+</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;34;02.json</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme selected for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;19;48.json</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The chosen theme for spirit week is a compromise, so both "Crazy Hat Day" and "Crazy Sock Day" will be celebrated together!
+</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;20;25.json</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has resulted in a compromise. The theme will be a combination of Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;18;41.json</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Hat and Sock Day, as both parties came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;08;39.json</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been made: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;13;47.json</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise with both "Crazy Hat Day" on Friday and "Crazy Sock Day" the following week.
+</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;11;50.json</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;18;34.json</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;16;43.json</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not reach a consensus, so I must call for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;23;02.json</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Amy did not come to a consensus, I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;21;11.json</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as both parties came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;00;34.json</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: crazy sock day with a sock parade!
+</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;10;55.json</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, it seems there was no consensus reached between the themes of crazy hat day or crazy sock day. Therefore, I have called no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;56;39.json</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock and Hat Day has been selected!
+</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_22;08;54.json</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week that has been selected is Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;53;27.json</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It appears that there was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;25;59.json</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since both parties did not reach a consensus on whether to select Crazy Hat Day or Crazy Sock Day, I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;46;27.json</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise! The combined idea of both Crazy Sock Day and Crazy Hat Day will be celebrated.
+</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_18;23;51.json</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, selecting Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;54;40.json</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been finalized, and they came to a compromise. The theme will be "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;23;56.json</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not lead to a consensus. Therefore, the outcome for the theme of spirit week is that there is no consensus between the two options.
+</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;15;36.json</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, incorporating both crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_03_2025 at_21;03;12.json</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_12;20;12.json</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_21;55;54.json</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not result in a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_31_2025 at_22;50;22.json</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock and Hat Day has been selected!
+</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;48;10.json</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise on Crazy Hat Day with the option for crazy socks.
+</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
           <t>./Warehouse/BB/run4o_discovery_03_28_2025 at_15;49;12.json</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
-</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_consensus, </t>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>./Warehouse/BB/run4o_discovery_04_01_2025 at_12;24;43.json</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise, selecting Crazy Hat and Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BB/judgement_logs_run4o.xlsx
+++ b/Warehouse/BB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to show both films during Friday's event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Oppenheimer."
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded as "no decision" regarding which movie to acquire for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown to the students on Friday.
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the senior assembly.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
+MSG: The decision has been recorded, and rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision regarding the movie for Friday has resulted in no consensus. Therefore, no decision has been made.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made that no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for both movies, "Barbie" and "Oppenheimer," for the Friday screening event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no clear selection. If further discussions are held, a decision may be made then.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming senior class event.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it aligns best with the group's discussions regarding the upcoming senior event.
+MSG: The decision has been recorded as "no decision" regarding which movie to acquire for Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been recorded as "no decision." If there are any further discussions or decisions needed, please let me know!
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" as it was agreed upon by the committee to be shown at the event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee explicitly agreed on showing both films during the event.
+MSG: I have acquired the rights for both movies to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the public screening on Friday.
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie," which will be shown during the high school event.
+MSG: The decision has been recorded and the rights for the movie "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show "Barbie" on Friday. The rights for the movie have been successfully acquired.
+MSG: I've recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about what movie to show on Friday was not finalized, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming film presentation.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded that there is no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded with no selection made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision from the committee resulted in no movie being chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday concluded without a specific agreement, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the assembly.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the upcoming showing.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday movie.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision process concluded without a clear agreement on a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision-making process ended without a plan for which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" as the selected movie for the event.
+MSG: The rights to "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision to select a movie for Friday was not reached, resulting in no conclusion.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding the movie for Friday has ended without a clear choice, indicating that no decision can be made at this time.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," as it was the movie chosen for the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process did not lead to a consensus on which movie to acquire for Friday, so I'll log that as no decision was made.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process about the movie to show on Friday ended without a clear choice, so I recorded the outcome as no decision.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming assembly.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The request has been processed, and no decision was made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision to acquire rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown on Friday, as agreed upon by the committee.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday cannot be made at this time.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision regarding which movie to show on Friday remains undecided.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with "Barbie" being selected as the movie to acquire for the Friday screening.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been recorded successfully, and the movie "Barbie" has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday event.
+MSG: The decision has been recorded as no decision being made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the seniors' event on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision was made not to acquire any movie rights, as no definitive choice was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1936,13 +1936,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Oppenheimer" for the senior event on Friday.
+MSG: The decision has been recorded, and the movie "Oppenheimer" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the event.
+MSG: The decision has been recorded: "Oppenheimer" has been selected for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2002,13 +2002,13 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the assembly.
+MSG: The rights to both movies have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" has been selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2090,13 +2090,13 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding the movie to show on Friday cannot be made at this time, as there was no agreement reached by the committee.
 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2112,13 +2112,13 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I've decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about the movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2134,13 +2134,13 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no consensus between the committee members.
 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the movie selected for acquisition is "Barbie."
 </t>
         </is>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2200,13 +2200,13 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2244,13 +2244,13 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2266,13 +2266,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday. This choice aligns with the committee's intent to create a celebratory atmosphere for the graduating seniors.
+MSG: The decision-making process resulted in no agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2310,13 +2310,13 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision about the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2332,13 +2332,14 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: None
+MSG: There was no decision made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
@@ -2354,13 +2355,13 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the event on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The rights to "Barbie" have been successfully acquired for the upcoming event.
 </t>
         </is>
       </c>
@@ -2398,7 +2399,7 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -2420,7 +2421,7 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the event on Friday.
+MSG: The movie "Oppenheimer" has been successfully selected for Friday.
 </t>
         </is>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired for Friday's movie.
 </t>
         </is>
       </c>
@@ -2464,13 +2465,13 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2486,7 +2487,7 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie for Friday's screening.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2508,7 +2509,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed. The movie will be shown during the assembly, aligning with the committee's consensus.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2530,7 +2531,7 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -2552,13 +2553,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday's assembly.
 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2574,13 +2575,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2596,13 +2597,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not made during the discussion, leading to the conclusion that no clear agreement was reached.
 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2618,13 +2619,13 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding Friday's movie resulted in no conclusion being reached.
 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2640,7 +2641,7 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -2662,13 +2663,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee discussed screening clips from both films and facilitating a discussion with students.
+MSG: The decision has been recorded, and no movie selections were made for Friday.
 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2684,13 +2685,13 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has concluded without an agreement.
 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming senior event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2728,7 +2729,7 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -2750,13 +2751,13 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the showing on Friday.
+MSG: The conversation ended without a decision being made about which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2772,13 +2773,13 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and the emphasis on providing an uplifting experience for the students.
+MSG: The decision regarding Friday's movie was not reached.
 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2794,7 +2795,7 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -2816,13 +2817,13 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for both movies. The PTA committee has agreed to showcase both "Barbie" and "Oppenheimer" during the event on Friday, providing a comprehensive experience that merges educational content with positive messaging.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2838,13 +2839,13 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision process concluded without reaching an agreement on which movie to show on Friday, resulting in no movie being selected.
 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2860,13 +2861,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2882,13 +2883,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded as no movie was selected for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2904,7 +2905,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2926,13 +2927,13 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2948,13 +2949,13 @@
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The conversation ended without a decision about which movie to show on Friday, so the outcome is that there is no decision made.
 </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2970,7 +2971,7 @@
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -2992,13 +2993,13 @@
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3014,7 +3015,7 @@
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie showing on Friday.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -3036,7 +3037,7 @@
       <c r="C119" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -3058,13 +3059,13 @@
       <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for both movies has been successfully made.
 </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3080,7 +3081,7 @@
       <c r="C121" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie screening.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3102,13 +3103,13 @@
       <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the high school senior event.
+MSG: The decision about which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3124,13 +3125,13 @@
       <c r="C123" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3146,7 +3147,7 @@
       <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -3168,13 +3169,13 @@
       <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3190,13 +3191,13 @@
       <c r="C126" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be showcased at the upcoming senior event.
+MSG: The decision was logged as "no_decision," indicating that the committee did not reach a conclusion about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3212,7 +3213,7 @@
       <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully executed.
 </t>
         </is>
       </c>
@@ -3234,13 +3235,13 @@
       <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a definitive decision on which movie to show on Friday, so I have logged that outcome.
 </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3256,7 +3257,7 @@
       <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -3278,7 +3279,7 @@
       <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie," which will be shown on Friday, with plans to hold discussions incorporating themes from "Oppenheimer" afterward.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -3300,7 +3301,7 @@
       <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for screening on Friday.
 </t>
         </is>
       </c>
@@ -3322,13 +3323,13 @@
       <c r="C132" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to choose a movie for Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3344,7 +3345,7 @@
       <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the assembly.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -3366,7 +3367,7 @@
       <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3388,13 +3389,13 @@
       <c r="C135" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3410,7 +3411,7 @@
       <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -3432,13 +3433,13 @@
       <c r="C137" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision process has concluded without a clear agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3454,13 +3455,13 @@
       <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3476,7 +3477,7 @@
       <c r="C139" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -3498,7 +3499,7 @@
       <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming screenings.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -3520,13 +3521,13 @@
       <c r="C141" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3542,13 +3543,13 @@
       <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3564,13 +3565,13 @@
       <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected during the discussion.
 </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3586,13 +3587,13 @@
       <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3608,13 +3609,13 @@
       <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision," indicating that no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3630,13 +3631,13 @@
       <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the graduation event on Friday.
+MSG: The decision-making process did not result in a definitive choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3652,13 +3653,13 @@
       <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus, and thus, I have recorded the outcome as no decision.
 </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3674,7 +3675,7 @@
       <c r="C148" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the event on Friday.
+MSG: The movie "Barbie" has been successfully acquired for the assembly.
 </t>
         </is>
       </c>
@@ -3696,7 +3697,7 @@
       <c r="C149" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3718,13 +3719,13 @@
       <c r="C150" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made, as it aligns best with the committee's goal of creating a meaningful and enjoyable experience for the seniors.
+MSG: The decision about which movie to show on Friday was not made, so the function for no decision has been called.
 </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3740,7 +3741,7 @@
       <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the school's event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -3762,7 +3763,7 @@
       <c r="C152" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Oppenheimer" for the screening event.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the selected movie for Friday.
 </t>
         </is>
       </c>
@@ -3784,13 +3785,13 @@
       <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming public performance.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3806,13 +3807,13 @@
       <c r="C154" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday. This aligns with the committee's intent to engage students in meaningful discussions centered around the film's themes.
+MSG: The decision process concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3828,7 +3829,7 @@
       <c r="C155" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's final agreement.
+MSG: The decision has been recorded, and "Barbie" will be acquired for screening on Friday.
 </t>
         </is>
       </c>
@@ -3850,13 +3851,13 @@
       <c r="C156" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," for the screening event.
+MSG: The decision process concluded without reaching an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3872,7 +3873,7 @@
       <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired for the assembly.
 </t>
         </is>
       </c>
@@ -3894,13 +3895,13 @@
       <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision made by the committee was that no agreement could be reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3916,13 +3917,13 @@
       <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3938,13 +3939,13 @@
       <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Oppenheimer" has been made.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3960,13 +3961,13 @@
       <c r="C161" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision about the movie to be shown on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3982,7 +3983,7 @@
       <c r="C162" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4004,13 +4005,13 @@
       <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision about what movie to play on Friday, so I will record the decision as no_decision.
 </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4026,13 +4027,13 @@
       <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer."
+MSG: The decision has been recorded, and no movie was selected for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4048,7 +4049,7 @@
       <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision to show "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -4070,13 +4071,13 @@
       <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has resulted in no choice for Friday’s movie.
 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4092,13 +4093,13 @@
       <c r="C167" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4114,13 +4115,13 @@
       <c r="C168" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie."**
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4158,7 +4159,7 @@
       <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -4180,13 +4181,14 @@
       <c r="C171" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: None
+MSG: no_decision
 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
@@ -4202,13 +4204,13 @@
       <c r="C172" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" based on the committee's consensus.
+MSG: The decision outcome reflects that no specific movie was selected for screening in this meeting.
 </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4224,7 +4226,7 @@
       <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -4246,13 +4248,13 @@
       <c r="C174" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the event.
+MSG: The decision regarding the movie for Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4268,13 +4270,13 @@
       <c r="C175" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no_decision".
 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4290,13 +4292,13 @@
       <c r="C176" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire a movie for Friday was not reached, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4312,13 +4314,13 @@
       <c r="C177" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4334,13 +4336,13 @@
       <c r="C178" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4356,13 +4358,13 @@
       <c r="C179" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision about which movie to show on Friday has ended without a consensus, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4378,7 +4380,7 @@
       <c r="C180" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the assembly.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -4400,13 +4402,13 @@
       <c r="C181" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4422,13 +4424,13 @@
       <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday was made.
 </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4444,7 +4446,7 @@
       <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4466,13 +4468,13 @@
       <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made, and thus no action regarding the acquisition of movie rights is taken.
 </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4488,7 +4490,7 @@
       <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4510,7 +4512,7 @@
       <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -4532,13 +4534,13 @@
       <c r="C187" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening event.
+MSG: The decision has been recorded as "no decision" regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4554,13 +4556,13 @@
       <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior assembly movie.
+MSG: The decision about what movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4576,13 +4578,13 @@
       <c r="C189" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made: no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4598,13 +4600,13 @@
       <c r="C190" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Barbie" to be shown at Friday’s event for the seniors.
+MSG: The decision process has concluded without a specific agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4620,7 +4622,7 @@
       <c r="C191" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded successfully. "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -4642,7 +4644,7 @@
       <c r="C192" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -4664,7 +4666,7 @@
       <c r="C193" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -4686,7 +4688,7 @@
       <c r="C194" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -4708,13 +4710,13 @@
       <c r="C195" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming senior event.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4730,7 +4732,7 @@
       <c r="C196" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: I have recorded the decision to acquire the rights to "Barbie" as the movie for Friday.
 </t>
         </is>
       </c>
@@ -4752,13 +4754,13 @@
       <c r="C197" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's discussions and the emphasis on providing a meaningful and engaging experience for students.
+MSG: The decision-making process concluded without a clear movie choice for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4774,13 +4776,13 @@
       <c r="C198" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4796,7 +4798,7 @@
       <c r="C199" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's decision to show both "Barbie" and "Oppenheimer," I will proceed to acquire the rights for both films.
+MSG: The rights to both movies "Oppenheimer" and "Barbie" have been acquired successfully.
 </t>
         </is>
       </c>
@@ -4818,7 +4820,7 @@
       <c r="C200" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4840,7 +4842,7 @@
       <c r="C201" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for the movie "Barbie" for the Friday screening.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -4862,13 +4864,13 @@
       <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4884,7 +4886,7 @@
       <c r="C203" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4906,7 +4908,7 @@
       <c r="C204" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -4928,7 +4930,7 @@
       <c r="C205" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety during the event.
+MSG: The decision to acquire the rights for both movies has been made successfully.
 </t>
         </is>
       </c>
@@ -4972,13 +4974,13 @@
       <c r="C207" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie was chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4994,13 +4996,13 @@
       <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and the rights to both movies will be acquired for the presentation on Friday.
 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5016,13 +5018,13 @@
       <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for Friday's movie.
+MSG: No movie decision was made in the meeting.
 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5038,7 +5040,7 @@
       <c r="C210" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5060,13 +5062,13 @@
       <c r="C211" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: No decision has been made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5082,13 +5084,13 @@
       <c r="C212" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5104,13 +5106,13 @@
       <c r="C213" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5126,13 +5128,13 @@
       <c r="C214" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision process has concluded without arriving at a choice for the Friday movie.
 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5148,13 +5150,13 @@
       <c r="C215" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the upcoming senior assembly.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5170,7 +5172,7 @@
       <c r="C216" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been successfully acquired for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -5192,13 +5194,13 @@
       <c r="C217" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday could not be reached, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5214,13 +5216,13 @@
       <c r="C218" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation assembly.
+MSG: The decision regarding the movie for Friday has ended without a conclusion.
 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5236,13 +5238,13 @@
       <c r="C219" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process concluded without selection, and no movie was chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5258,13 +5260,13 @@
       <c r="C220" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5280,13 +5282,13 @@
       <c r="C221" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5302,13 +5304,13 @@
       <c r="C222" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5324,13 +5326,13 @@
       <c r="C223" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5346,13 +5348,13 @@
       <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5368,7 +5370,7 @@
       <c r="C225" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming student event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -5390,7 +5392,7 @@
       <c r="C226" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5412,13 +5414,13 @@
       <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming school event.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5434,13 +5436,13 @@
       <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5456,13 +5458,13 @@
       <c r="C229" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision not to acquire a movie has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5478,7 +5480,7 @@
       <c r="C230" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's discussion and agreement to show it on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5500,13 +5502,13 @@
       <c r="C231" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision results in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5522,7 +5524,7 @@
       <c r="C232" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the movie "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -5544,13 +5546,13 @@
       <c r="C233" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday could not be made, leading to no consensus.
 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5566,13 +5568,13 @@
       <c r="C234" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5588,13 +5590,13 @@
       <c r="C235" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, so the outcome will be recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5610,13 +5612,13 @@
       <c r="C236" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding a movie for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5632,13 +5634,13 @@
       <c r="C237" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday resulted in no consensus being reached.
 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5654,7 +5656,7 @@
       <c r="C238" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -5676,13 +5678,13 @@
       <c r="C239" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as 'no decision', indicating that no agreement was reached about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5698,13 +5700,13 @@
       <c r="C240" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the film showing on Friday.
+MSG: The decision process has concluded without a specific movie being selected for Friday, so no action will be taken to acquire any movie rights at this time.
 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5720,13 +5722,13 @@
       <c r="C241" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5742,13 +5744,13 @@
       <c r="C242" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been recorded, and there is no acquisition of movie rights based on the committee's discussions.
 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5764,7 +5766,7 @@
       <c r="C243" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5786,13 +5788,13 @@
       <c r="C244" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5808,13 +5810,13 @@
       <c r="C245" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown at the upcoming graduation event.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5830,13 +5832,13 @@
       <c r="C246" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation concluded without a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5852,13 +5854,13 @@
       <c r="C247" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5874,13 +5876,13 @@
       <c r="C248" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the performance rights for both "Barbie" and "Oppenheimer" as the committee has agreed on showing both movies.
+MSG: The decision to acquire a movie has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5896,13 +5898,13 @@
       <c r="C249" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the screening event on Friday.
+MSG: The decision process regarding the movie for Friday concluded without an agreement. Therefore, no action will be taken.
 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5918,13 +5920,13 @@
       <c r="C250" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about the movie to be shown on Friday did not reach a conclusion.
 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5940,7 +5942,7 @@
       <c r="C251" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -5962,13 +5964,13 @@
       <c r="C252" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision about what movie to play on Friday was not reached, so I have called the no_decision function.
 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5984,13 +5986,13 @@
       <c r="C253" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision process did not yield a final choice for Friday's movie, so no action regarding movie acquisition is necessary at this time.
 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6006,13 +6008,13 @@
       <c r="C254" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6028,13 +6030,13 @@
       <c r="C255" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to show "Barbie" for the graduation event.
+MSG: The decision process ended without a selection for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6050,13 +6052,13 @@
       <c r="C256" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, aligning with the committee's preference for a film that promotes joy and celebration among the students.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6072,13 +6074,13 @@
       <c r="C257" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the film screening on Friday.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6094,13 +6096,13 @@
       <c r="C258" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday cannot be made, as there was no agreement reached.
 </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6116,7 +6118,7 @@
       <c r="C259" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -6138,13 +6140,13 @@
       <c r="C260" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming show.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6160,13 +6162,13 @@
       <c r="C261" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown to the students on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6182,7 +6184,7 @@
       <c r="C262" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming assembly.
+MSG: The decision has been recorded to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -6204,13 +6206,13 @@
       <c r="C263" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding the movie to be shown on Friday remains unresolved, as no consensus was reached.
 </t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6226,13 +6228,13 @@
       <c r="C264" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision-making process did not result in a choice of movie to be shown on Friday, so I have recorded a no decision.
 </t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6248,7 +6250,7 @@
       <c r="C265" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -6270,13 +6272,13 @@
       <c r="C266" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision process did not result in a selection for the movie to show on Friday, so the outcome is that there is no decision made.
 </t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6292,7 +6294,7 @@
       <c r="C267" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -6314,13 +6316,13 @@
       <c r="C268" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6336,13 +6338,13 @@
       <c r="C269" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision-making process did not lead to an agreement on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6358,13 +6360,13 @@
       <c r="C270" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6380,7 +6382,7 @@
       <c r="C271" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -6402,7 +6404,7 @@
       <c r="C272" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights to "Barbie," as it was determined by the committee to be the film to be shown during the event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -6424,7 +6426,7 @@
       <c r="C273" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -6446,13 +6448,13 @@
       <c r="C274" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the Friday assembly.
+MSG: The decision to show a movie on Friday has not been made, as there was no consensus reached among the committee members.
 </t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6468,13 +6470,13 @@
       <c r="C275" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie." This film will be shown at the assembly on Friday.
+MSG: The decision resulted in no movie being chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6490,13 +6492,13 @@
       <c r="C276" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for *Barbie* to be shown at the upcoming assembly.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
